--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H2">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I2">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J2">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>28.82581151858111</v>
+        <v>31.86025538577</v>
       </c>
       <c r="R2">
-        <v>259.43230366723</v>
+        <v>286.74229847193</v>
       </c>
       <c r="S2">
-        <v>0.007838147078339429</v>
+        <v>0.010252486279348</v>
       </c>
       <c r="T2">
-        <v>0.007838147078339432</v>
+        <v>0.010252486279348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H3">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I3">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J3">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>780.1081630287879</v>
+        <v>922.2404123307551</v>
       </c>
       <c r="R3">
-        <v>7020.973467259091</v>
+        <v>8300.163710976796</v>
       </c>
       <c r="S3">
-        <v>0.2121224762359721</v>
+        <v>0.2967727991880562</v>
       </c>
       <c r="T3">
-        <v>0.2121224762359722</v>
+        <v>0.2967727991880562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H4">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I4">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J4">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>1064.750062379135</v>
+        <v>643.669638650535</v>
       </c>
       <c r="R4">
-        <v>9582.750561412211</v>
+        <v>5793.026747854816</v>
       </c>
       <c r="S4">
-        <v>0.2895206466336298</v>
+        <v>0.2071299824434224</v>
       </c>
       <c r="T4">
-        <v>0.2895206466336299</v>
+        <v>0.2071299824434224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H5">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I5">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J5">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>74.62284158069779</v>
+        <v>98.13966961666</v>
       </c>
       <c r="R5">
-        <v>671.6055742262802</v>
+        <v>883.2570265499401</v>
       </c>
       <c r="S5">
-        <v>0.02029100923441836</v>
+        <v>0.0315809024134172</v>
       </c>
       <c r="T5">
-        <v>0.02029100923441837</v>
+        <v>0.0315809024134172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H6">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I6">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J6">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>798.9104384967479</v>
+        <v>653.4056129415501</v>
       </c>
       <c r="R6">
-        <v>7190.193946470731</v>
+        <v>5880.650516473951</v>
       </c>
       <c r="S6">
-        <v>0.2172350816670569</v>
+        <v>0.2102629749956196</v>
       </c>
       <c r="T6">
-        <v>0.2172350816670569</v>
+        <v>0.2102629749956195</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.499294</v>
       </c>
       <c r="I7">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J7">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>5.619026349827333</v>
+        <v>5.253387690908</v>
       </c>
       <c r="R7">
-        <v>50.571237148446</v>
+        <v>47.280489218172</v>
       </c>
       <c r="S7">
-        <v>0.001527892976703238</v>
+        <v>0.001690516430862823</v>
       </c>
       <c r="T7">
-        <v>0.001527892976703238</v>
+        <v>0.001690516430862822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.499294</v>
       </c>
       <c r="I8">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J8">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>152.0667794885354</v>
@@ -948,10 +948,10 @@
         <v>1368.601015396818</v>
       </c>
       <c r="S8">
-        <v>0.04134911458059861</v>
+        <v>0.0489344027966324</v>
       </c>
       <c r="T8">
-        <v>0.04134911458059862</v>
+        <v>0.04893440279663239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.499294</v>
       </c>
       <c r="I9">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J9">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>207.5521326652713</v>
+        <v>106.133680215514</v>
       </c>
       <c r="R9">
-        <v>1867.969193987442</v>
+        <v>955.203121939626</v>
       </c>
       <c r="S9">
-        <v>0.05643636923126218</v>
+        <v>0.0341533389174359</v>
       </c>
       <c r="T9">
-        <v>0.05643636923126219</v>
+        <v>0.0341533389174359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.499294</v>
       </c>
       <c r="I10">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J10">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>14.54625875391734</v>
+        <v>16.18209666279733</v>
       </c>
       <c r="R10">
-        <v>130.916328785256</v>
+        <v>145.638869965176</v>
       </c>
       <c r="S10">
-        <v>0.003955334110170394</v>
+        <v>0.005207325616118976</v>
       </c>
       <c r="T10">
-        <v>0.003955334110170394</v>
+        <v>0.005207325616118974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.499294</v>
       </c>
       <c r="I11">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J11">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>155.7319141621273</v>
+        <v>107.7390297922867</v>
       </c>
       <c r="R11">
-        <v>1401.587227459146</v>
+        <v>969.65126813058</v>
       </c>
       <c r="S11">
-        <v>0.04234571669239059</v>
+        <v>0.03466993316032983</v>
       </c>
       <c r="T11">
-        <v>0.04234571669239059</v>
+        <v>0.03466993316032982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H12">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I12">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J12">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>1.001116717465778</v>
+        <v>0.3605724781773333</v>
       </c>
       <c r="R12">
-        <v>9.010050457191999</v>
+        <v>3.245152303596</v>
       </c>
       <c r="S12">
-        <v>0.000272217837441386</v>
+        <v>0.0001160305948732203</v>
       </c>
       <c r="T12">
-        <v>0.0002722178374413861</v>
+        <v>0.0001160305948732203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H13">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I13">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J13">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>27.09305592094845</v>
+        <v>10.43728328360822</v>
       </c>
       <c r="R13">
-        <v>243.837503288536</v>
+        <v>93.935549552474</v>
       </c>
       <c r="S13">
-        <v>0.007366986250263313</v>
+        <v>0.003358670618398602</v>
       </c>
       <c r="T13">
-        <v>0.007366986250263313</v>
+        <v>0.003358670618398601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H14">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I14">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J14">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>36.97863238588711</v>
+        <v>7.284610682668666</v>
       </c>
       <c r="R14">
-        <v>332.807691472984</v>
+        <v>65.56149614401801</v>
       </c>
       <c r="S14">
-        <v>0.0100550147290596</v>
+        <v>0.002344154815149714</v>
       </c>
       <c r="T14">
-        <v>0.0100550147290596</v>
+        <v>0.002344154815149714</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H15">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I15">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J15">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>2.591641666812445</v>
+        <v>1.110677345574222</v>
       </c>
       <c r="R15">
-        <v>23.32477500131201</v>
+        <v>9.996096110168001</v>
       </c>
       <c r="S15">
-        <v>0.0007047041345474179</v>
+        <v>0.0003574109531892931</v>
       </c>
       <c r="T15">
-        <v>0.000704704134547418</v>
+        <v>0.0003574109531892931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H16">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I16">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J16">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>27.74605652373245</v>
+        <v>7.394795749771112</v>
       </c>
       <c r="R16">
-        <v>249.714508713592</v>
+        <v>66.55316174794001</v>
       </c>
       <c r="S16">
-        <v>0.007544546377705554</v>
+        <v>0.002379611872068392</v>
       </c>
       <c r="T16">
-        <v>0.007544546377705554</v>
+        <v>0.002379611872068391</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H17">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I17">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J17">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>2.659155016080111</v>
+        <v>2.829994320494</v>
       </c>
       <c r="R17">
-        <v>23.932395144721</v>
+        <v>25.469948884446</v>
       </c>
       <c r="S17">
-        <v>0.0007230619719658081</v>
+        <v>0.0009106793900483442</v>
       </c>
       <c r="T17">
-        <v>0.0007230619719658082</v>
+        <v>0.000910679390048344</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H18">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I18">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J18">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>71.96427179390479</v>
+        <v>81.91821118269435</v>
       </c>
       <c r="R18">
-        <v>647.678446145143</v>
+        <v>737.2639006442491</v>
       </c>
       <c r="S18">
-        <v>0.01956810639459785</v>
+        <v>0.02636091035712229</v>
       </c>
       <c r="T18">
-        <v>0.01956810639459785</v>
+        <v>0.02636091035712228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H19">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I19">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J19">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>98.22222931770744</v>
+        <v>57.17409981807701</v>
       </c>
       <c r="R19">
-        <v>884.0000638593669</v>
+        <v>514.5668983626931</v>
       </c>
       <c r="S19">
-        <v>0.02670801754387069</v>
+        <v>0.01839836708216457</v>
       </c>
       <c r="T19">
-        <v>0.02670801754387069</v>
+        <v>0.01839836708216457</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H20">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I20">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J20">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>6.883889578461778</v>
+        <v>8.717278134385333</v>
       </c>
       <c r="R20">
-        <v>61.95500620615601</v>
+        <v>78.45550320946801</v>
       </c>
       <c r="S20">
-        <v>0.001871827232071188</v>
+        <v>0.0028051807301571</v>
       </c>
       <c r="T20">
-        <v>0.001871827232071188</v>
+        <v>0.002805180730157098</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H21">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I21">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J21">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>73.69876468379678</v>
+        <v>58.03889991507668</v>
       </c>
       <c r="R21">
-        <v>663.288882154171</v>
+        <v>522.3500992356901</v>
       </c>
       <c r="S21">
-        <v>0.02003973961708472</v>
+        <v>0.0186766558473208</v>
       </c>
       <c r="T21">
-        <v>0.02003973961708472</v>
+        <v>0.01867665584732079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H22">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I22">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J22">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>0.4832805924923333</v>
+        <v>1.839032723542667</v>
       </c>
       <c r="R22">
-        <v>4.349525332431</v>
+        <v>16.551294511884</v>
       </c>
       <c r="S22">
-        <v>0.0001314108489754112</v>
+        <v>0.0005917924240436055</v>
       </c>
       <c r="T22">
-        <v>0.0001314108489754112</v>
+        <v>0.0005917924240436055</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H23">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I23">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J23">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>13.07894263423033</v>
+        <v>53.23341814790512</v>
       </c>
       <c r="R23">
-        <v>117.710483708073</v>
+        <v>479.1007633311461</v>
       </c>
       <c r="S23">
-        <v>0.003556350041704136</v>
+        <v>0.01713027351965156</v>
       </c>
       <c r="T23">
-        <v>0.003556350041704136</v>
+        <v>0.01713027351965156</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H24">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I24">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J24">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>17.85112071072633</v>
+        <v>37.15379912359134</v>
       </c>
       <c r="R24">
-        <v>160.660086396537</v>
+        <v>334.3841921123221</v>
       </c>
       <c r="S24">
-        <v>0.004853972959396889</v>
+        <v>0.01195592474473399</v>
       </c>
       <c r="T24">
-        <v>0.00485397295939689</v>
+        <v>0.01195592474473399</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H25">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I25">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J25">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>1.251093002857333</v>
+        <v>5.664802799519111</v>
       </c>
       <c r="R25">
-        <v>11.259837025716</v>
+        <v>50.98322519567201</v>
       </c>
       <c r="S25">
-        <v>0.0003401899356330698</v>
+        <v>0.001822907954567803</v>
       </c>
       <c r="T25">
-        <v>0.0003401899356330699</v>
+        <v>0.001822907954567803</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H26">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I26">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J26">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>13.39417312904233</v>
+        <v>37.71577752269556</v>
       </c>
       <c r="R26">
-        <v>120.547558161381</v>
+        <v>339.4419977042601</v>
       </c>
       <c r="S26">
-        <v>0.00364206568514132</v>
+        <v>0.01213676685526771</v>
       </c>
       <c r="T26">
-        <v>0.00364206568514132</v>
+        <v>0.01213676685526771</v>
       </c>
     </row>
   </sheetData>
